--- a/_Lang_Korean/Lang/KR/Game/Race.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="313">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">The Yerls, people of the rising New Kingdom in Sierre Terre, trace their lineage back to slaves who escaped from Eulderna. Harboring deep-seated hatred towards the empire and everything it represents; they have established the pinnacle of mechanical civilizations in Sierre. Gifted with a heightened learning capacity, adept in handling mechanized armaments, they acquire feats faster than any other races.</t>
   </si>
   <si>
-    <t xml:space="preserve">シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
+    <t xml:space="preserve">シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てのものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
   </si>
   <si>
     <t xml:space="preserve">eulderna</t>
@@ -1065,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>229</v>

--- a/_Lang_Korean/Lang/KR/Game/Race.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Race.xlsx
@@ -1,1042 +1,1052 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB07AEF-3DD3-4BDA-853B-089021377460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Race" sheetId="1" r:id="rId3"/>
+    <sheet name="Race" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1"><![CDATA[Race!$A$2:$H$2]]></definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Race!$A$2:$H$2</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="332">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yerles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.24 fix 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イエルス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Yerls, people of the rising New Kingdom in Sierre Terre, trace their lineage back to slaves who escaped from Eulderna. Harboring deep-seated hatred towards the empire and everything it represents; they have established the pinnacle of mechanical civilizations in Sierre. Gifted with a heightened learning capacity, adept in handling mechanized armaments, they acquire feats faster than any other races.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てのものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eulderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エウダーナ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the most ancient nations in Sierre Terre, Eulderna wields vast knowledge of magic and magical weaponry. Recognized and feared as the desert empire by the world, they bear a sense of chosen destiny, believing that only they are worthy of steering the world's course. They are cruel perfectionists. Euldernains are skilled in magic and magical tools, making them apt for caster and intermediate professions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エウダーナはシエラ・テールに存在する最も古い国の一つです。強大な魔法と魔道兵器の知識を有し、砂漠の帝国として各国から恐れられています。彼らは、自分たちのみが世界を動かすに値すると考える選民意識の持ち主で、残虐な完ぺき主義者です。エウダーナ人は魔法や魔法道具の扱いにたけ、キャスターや中間的な職業に向いています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖精</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delicate, frail, and fleeting, fairies boast higher magical prowess, evasion, and unmatched speed compared to humans. They hold high resistance to nearly all elements. However, their physical fragility limits them from wearing gear heavier than 1s, making bolstering defenses a challenge. A single substantial physical attack could place them in peril.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖精は可憐で非力で儚い生物です。彼女達は、人間族と比べて高い魔力と回避力、目にも止まらぬすばしっこさを持ち、ほぼ全ての耐性に高い抵抗力を持っています。反面、妖精は重さ1s以上の装備を身につけることができず、防御力をあげるのは困難です。その体力の低さからも、まともな物理攻撃を一度でもくらうと危機に陥るでしょう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwarf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hillfolk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丘の民</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hillfolk are a stout and rugged race of short stature. Once, they built grand cities of gold and gems deep beneath the earth, but much of those splendors now remains only as ruins inhabited by dangerous monsters. Possessing advanced mining and crafting skills, their compact, sturdy bodies are equipped to thrive in the darkest and most toxic of environments. They have a profound love for alcohol and can summon strength beyond their usual capabilities when they drink.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丘の民は、頑強で無骨な背が低い種族です。かつて地下深くに黄金と宝石の都を築いた彼らですが、その栄光の多くは、今や危険な魔物が住みつく遺跡として残るのみとなっています。丘の民は高い採掘技術と生産技術を持ち、ずんぐりした小さい体は強靭で、暗闇や毒の環境でも生存する能力を持っています。彼らは酒をこよなく愛し、酒を飲むことで普段以上の力を発揮することができます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジューア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomads of South Tyris without a homeland, the Juere often drift into banditry, making them notorious in Tyris. They cherish freedom, loathe constraints, and prioritize personal autonomy. Gifted with dexterous hands, sharp senses, and a high learning ability, they are masters of all trades. They can earn their living through performances and can survive on minimal sustenance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジューアは国を持たないサウスティリスの遊牧民です。彼らは時に盗賊やならず者の集団へと転じるため、ティリスでの評判はあまり芳しくありません。彼らは束縛されることを嫌い、自分の意思を尊重し、自由に生きることを好みます。ジューアは手先が器用で、鋭い感覚と高い学習能力を持ち、多彩な技術に精通しています。彼らはパフォーマンスをすることで生計をたてることができ、少ない食事で生き抜く術を会得しています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エレア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among the oldest and most mysterious races in Sierre Terre, the Elea are serene, mystical, and beautiful beings. Preferring isolation, they live peacefully in forests. They have resistance to ether and vast magical powers, with the capability to mitigate damage from magical backlash.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エレアはシエラ・テールでもっとも古い、大人しく、神秘的で、美しい種族です。彼らは他の種族との干渉を避け、森の中で静かに暮らすことを好みます。エレアはエーテルへの耐性と高い魔力を持ち、魔力の反動によるダメージを軽減することができます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaos shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カオスシェイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little is known about the Chaos Shape, also referred to as the "Deformed Ones." They barely retain a human form. Chaos Shapes acquire new body parts as they grow, but what emerges is unpredictable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カオスシェイプについて分かっていることは、ほとんどありません。異形の人とも呼ばれる彼らは、かろうじて人の形を保っています。カオスシェイプは成長とともに新しい身体の部位を獲得しますが、何が生えてくるかは予測不可能です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かたつむり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The snail is a notably sluggish creature. Fragile, weak, clumsy, and devoid of learning aptitude, they can be dissolved by salt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カタツムリは非常に鈍い生き物です。彼らは脆く、非力で、不器用で、学習能力がなく、塩で溶けます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リッチ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immortal undead endowed with immense intelligence and magic, Liches possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While liches have resistance to several elements, they are vulnerable to fire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リッチは高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。リッチは幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wraith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽鬼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immortal undead endowed with immense intelligence and magic, Wraiths possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While wraiths have resistance to several elements, they are vulnerable to fire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽鬼は高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。幽鬼は幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴーレム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golems are materials imbued with life through magical means. Compared to other races, they boast vastly superior physical strength. However, perhaps as a trade-off, their mana and speed are notably inferior. Golems have a strong resistance to poison, are immune to bleeding, and possess the advantage of not succumbing to a state of being dazed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴーレムは魔力により生命を与えられた物質です。ゴーレムは他の種族に比べ遥かに高い体力を持っています。その代償としてか、彼らのマナと速度は、通常よりも劣っています。ゴーレムには毒への強い耐性があり、また出血と朦朧状態にならないという利点があります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mifu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mifu are a hybrid race of fox-human who live quietly in a corner of Tyris. Unlike their sister race, the Nefu, they are characterized by their white hair and fur, and large fluffy ears that stand up straight. They are cheerful and mischievous, and while they aren't particularly resilient, they make up for it with their outstanding knowledge of blessings and curses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミフはティリスの片隅でひっそりと暮らす狐と人間の亜種族で、姉妹種族のネフとは異なり、白い髪と毛皮、ピンと垂直にたった大きな耳が特徴的です。彼らは明るく、悪戯好きで、あまり打たれ強くはないものの、卓越した祝福と呪いの知識を持っています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nefu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Featuring red hair and fur, ample bosoms, and fluffy tails that increase in number as they age, the Nefu are a hybrid fox-human race. Similar to the Mifu, they reside far from human settlements. However, their striking beauty, combined with their distinctive spellsword combat style, has become a topic of fascination among adventurers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネフは赤い髪と毛皮、大きな胸とふさふさの多尾が特徴的な、狐と人間の亜種族です。姉妹種族のミフ同様に、人里から離れて暮らしていますが、その美しさ、そして魔法と長剣を操り舞うように戦う独特の流儀は、冒険者の間でもよく囁かれています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succubus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サキュバス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known by the alias "Lunar" or "Moonlit Kins", Succubi are said to appear by one's bedside on beautiful moonlit nights, tempting humans with their allure. The reality of this is whether the moon is out or not, night or day, they simply adore pleasurable experiences. They possess both high charisma and magic, growing stronger by indulging in sensations of pleasure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">月夜の眷属、ルナーという別名でも知られるサキュバスは、月の美しい夜に枕元に現れ、人々を誘惑すると言い伝えられています。実際には、月が出ていようとなかろうと、夜であろうとなかろうと、気持ちいいことが大好きです。彼らは高い魅力と魔力を持ち、快感に耽ることで成長します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demigod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半神</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demigods are the offspring of a god incarnate who descended to the earth and mingled with humans. Most of them are the product of the gods' whims, and it is rare for them to realize their own origins or their unique abilities. They possess beauty akin to that of the gods, well-balanced abilities, strong vitality, and mana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半神は地上に降り立った神の化身が人間と交わった結果生まれた子供たちです。その多くは神々の戯れの産物であり、彼らが自身の出自や特異な能力に気づくことは稀です。彼らは神の造形がごとく美しく、均整の取れた能力を持ち、強い生命力とマナを備えています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Shiba, while diverse in appearance and ecology, are generally known for their sturdy build and friendly, submissive nature. They are intelligent and adorable. and possess resistance to cold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シバは多様な種族により形成され、その外見や生態も様々ですが、総じてがっちりした体格と、友好的で従順な性格で知られています。彼らは賢く、キュートで、氷に対する耐性を持っています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eldercrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elder crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古代蟹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Elder Crab is the oldest of the crab species, preferring waterside habitats and evolving into various elements adapted to their environments. They are basically delicious, but their flavor changes depending on their element. Excelling in strength and endurance, they can restrain enemies with their massive pincers and are capable of exhaling a bubble breath.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古代蟹は最も古い蟹の種族で、水辺を好み、生息する地域に適応し様々な属性へと進化しています。基本的には美味しいものの、属性によって風味も変化します。筋力と耐久に秀で、その巨大なハサミで敵を拘束し、また泡のブレスを吐くことができます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴブリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kobolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kobold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コボルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">troll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トロール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lizardman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リザードマン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minotaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミノタウロス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノーランド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿修羅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スライム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">狼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zombie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゾンビ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウサギ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">羊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centipede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ムカデ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mandrake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マンドレイク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beetle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">昆虫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">きのこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コウモリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猟犬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幽霊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">精霊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wyvern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワイバーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワスプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巨人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">インプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蛇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドレイク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">熊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鎧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メデューサ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キューピット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phantom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファントム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハーピー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドラゴン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinosaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恐竜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerberus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ケルベロス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蟹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骸骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">駒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">犬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローラン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mermaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねずみ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やどかり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機械</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウィスプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鶏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stalker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">馬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クイックリング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メタル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バイク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">豚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catgod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猫の神</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machinegod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機械の神</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undeadgod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">死霊の神</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catsister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妹猫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apostle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使徒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">god</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예를스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">에우다나</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">언덕의 민족</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쥬아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">카오스셰이프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">달팽이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원귀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">골렘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미후</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네후</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서큐버스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시바</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고대게</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고블린</t>
-  </si>
-  <si>
-    <t xml:space="preserve">코볼트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">트롤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리저드맨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미노타우르스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">노랜드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아수라</t>
-  </si>
-  <si>
-    <t xml:space="preserve">슬라임</t>
-  </si>
-  <si>
-    <t xml:space="preserve">늑대</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좀비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">양</t>
-  </si>
-  <si>
-    <t xml:space="preserve">개구리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지네</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만드레이크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">곤충</t>
-  </si>
-  <si>
-    <t xml:space="preserve">버섯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박쥐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엔트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사냥개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정령</t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와이번</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와스프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">임프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뱀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드레이크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">곰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">갑옷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메두사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">큐피드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팬텀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하피</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드래곤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공룡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">케르베로스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거미</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바위</t>
-  </si>
-  <si>
-    <t xml:space="preserve">게</t>
-  </si>
-  <si>
-    <t xml:space="preserve">해골</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체스 말</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고양이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로랑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인어</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쥐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소라게</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">위습</t>
-  </si>
-  <si>
-    <t xml:space="preserve">닭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">스토커</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">말</t>
-  </si>
-  <si>
-    <t xml:space="preserve">퀴클링</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메탈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바이크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물고기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돼지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고양이 신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기계의 신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사령의 신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고양이 여동생</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸종</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시에라 테일에서 급속도로 대두된 신왕국, 에를의 백성이 예를스입니다. 예를스의 조상은 에우다나에서 탈출한 노예들이며, 제국과 제국이 만들어낸 모든 것을 증오하고 있습니다. 시에라에서 첫째가는 기계문명을 이룩한 예를스는 높은 학습능력을 갖고 있고, 기계 무장을 잘 다뤄, 다른 종족들보다 빠르게 피트를 획득할 수 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">에우다나는 시에라 테일에 존재하는 가장 오래된 국가 중 하나입니다. 강대한 마법과 마도병기 지식을 갖고 있는 사막의 제국으로, 많은 국가에서 두려워하고 있습니다. 에우다나 인들은 자신들만이 세계를 움직일 수 있다고 믿는 선민의식을 갖고 있는, 잔학한 완벽 주의자입니다. 에우다나인은 마법이나 마법 도구을 능숙하게 사용하며, 캐스터나 마법을 사용하는 직업에 적합합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요정은 가련하고, 힘도 없는 덧없는 생물입니다. 요정들은 인간족에 비해서 높은 마력과 회피력, 눈에도 포착되지 않을 민첩성을 가지고 있으며, 거의 모든 내성에 높은 저항력을 갖고 있습니다. 반면, 요정은 무게 1s 이상의 장비를 몸에 착용할 수 없어, 방어력을 상승이 힘듭니다. 체력이 낮기 때문에, 제대로 된 물리 공격을 일격이라도 허용한다면, 위기에 빠질 겁니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">언덕의 민족은 완강하고 투박한, 키가 작은 종족입니다. 한 때, 지하 깊은 곳에서 황금과 보석으로 이루어진 수도를 세웠었지만, 지금 그 영광은 위험한 마물들이 살아가는 유적으로만 남아 있을 뿐입니다. 언덕의 민족은 높은 채굴 기술과 생산기술을 가지고 있고, 땅딸막한 작은 신체는 강인하고, 어둡거나 독성이 감도는 환경에서도 생존하는 능력을 갖고 있습니다. 이들은 특히 술을 사랑하고, 술을 마심으로써 평소 이상의 힘을 발휘할 수 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쥬아는 나라가 없는 사우스 티리스의 유목민입니다. 쥬아는 종종 도적이나, 불량배 패거리에 들어가기도 해, 티리스에서의 평판은 그렇게 좋지는 않습니다. 이들은 속박 당하는 걸 싫어하고, 자신들의 의사를 존중하며 자유롭게 사는 것을 좋아합니다. 쥬아는 손재주가 있고, 날카로운 감각과 높은 학습 능력을 갖고있으며, 다양한 기술에 정통해 있습니다. 이들은 퍼포먼스를 해 생계를 유지할 수 있으며, 적은 식사로 살아남는 방법을 알고 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 시에라 테일에서 가장 가장 오래되고, 조용하고, 신비로우며, 아름다운 종족입니다. 엘레아는 다른 종족의 간섭을 피해, 숲속에서 조용하게 사는 것을 좋아합니다. 엘레아는 에테르에 대한 내성을 갖고 있으며, 높은 마력을 가져 마력의 반동으로 인한 데미지를 감소시킬 수 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">카오스 셰이프에 대해 알려진 내용은 거의 없습니다. 이상한 모습의 인간이라고 불리우는 카오스 셰이프들은, 간신히 사람의 형태를 유지하고 있습니다. 카오스 셰이프는 성장에 따라 새로운 신체 부위가 자라나지만, 무엇이 자라날 지는 예측 불가능합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">달팽이는 매우 둔한 생명체입니다. 달팽이들은 여리고, 약하고, 서투르고, 학습 능력도 없고, 소금에 닿으면 녹습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리치는 높은 지능과 마나를 가진 불멸의 언데드입니다. 리치들은 다른 종족보다 높은 마나와 명상 기술을 갖고 있지만, 근접전을 견디고, 버텨낼만한 체력은 갖고있지 않습니다. 리치는 몇가지 속성에 대한 내성을 갖고 있지만, 화염에는 취약합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원귀는 높은 지능과 마나를 가진 불멸의 언데드입니다. 원귀들은 다른 종족보다 높은 마나와 명상 기술을 갖고 있지만, 근접전을 견디고, 버텨낼만한 체력은 갖고있지 않습니다. 리치는 몇가지 속성에 대한 내성을 갖고 있지만, 화염에는 취약합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">골렘은 마력을 통해 생명을 갖게된 물질입니다. 골렘은 다른 종족에 비해 아득히 높은 체력을 갖고 있습니다. 그 대가로, 골렘들은 마나와 속도는 굉장히 뒤떨어 집니다. 골렘들은 독에 대한 강한 내성이 있고, 출혈과 몽롱 상태에 빠지지 않는다는 장점이 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미후는 티리스 한 켠에 조용히 살고 있는 여우와 인간의 아종족으로, 자매 종족인 네프와는 달리 하얀 머리카락과 모피, 똑바로 서있는 커다란 귀가 특징입니다. 미후들은 밝고, 장난을 좋아합니다. 육탄전에서는 그렇게 강하지는 않지만 탁월한 축복과 저주 지식을 갖고 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">네프는 붉은 머리카락과 모피, 커다란 가슴과 푹신푹신한 꼬리들이 특징인 여우와 인간의 아종족 입니다. 자매 종족인 미후와 마찬가지로, 사람의 마을에서 떨어져 살아가고 있지만, 그 아름다움과 마법과 장검을 휘두르며 춤추는 듯이 싸우는 독특한 전투 방식은, 모험자들 사이에서 종종 소문의 대상이 됩니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">월야의 권속, 루나 라는 이름으로도 알려진 서큐버스는, 아름다운 달이 뜬 밤 머리맡에 나타나, 사람들을 유혹한다고 전해집니다. 실제로는 달이 떠있든 안 떠있든, 밤이든 낮이든, 기분 좋은 일을 굉장히 좋아합니다. 서큐버스는 높은 매력과 마력을 가지고 있고, 쾌감을 탐닉하는 것으로 성장합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반신은 지상에 내려온 신의 화신이 인간과 함께한 결과 태어난 아이들입니다.  대부분은 신들의 장난의 산물이며, 많은 반신들이 자신의 출신이나 특이한 능력을 깨닫지 못합니다. 반신들은 신의 조각상 처럼 아름답고, 균형잡힌 능력을 갖고 있으며, 강한 생명력과 마력을 갖고있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시바는 다양한 종족들에 의해 형성되어, 그 외견과 생태도 다양하지만, 대체적으로 다부진 체격과, 우호적이고 순종적인 성격을 갖고 있는 것으로 알려져 있습니다. 시바는 똑똑하고,큐트하며, 얼음에 대한 내성을 갖고 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고대 게는 가장 오래된 게 종족으로, 물가 근처를 좋아하고, 생활하는 지역에 적응해, 다양한 속성으로 진화하고 있습니다. 기본적으로 맛있지만, 속성에 따라 풍미도 변화합니다. 근력과 내구가 뛰어나고, 그 거대한 집게발로 적을 구속할 수 있으며 거품 브레스를 토할 수 있습니다.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="332">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_JP</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>detail_EN</t>
+  </si>
+  <si>
+    <t>detail_JP</t>
+  </si>
+  <si>
+    <t>yerles</t>
+  </si>
+  <si>
+    <t>EA 23.24 fix 4</t>
+  </si>
+  <si>
+    <t>イエルス</t>
+  </si>
+  <si>
+    <t>The Yerls, people of the rising New Kingdom in Sierre Terre, trace their lineage back to slaves who escaped from Eulderna. Harboring deep-seated hatred towards the empire and everything it represents; they have established the pinnacle of mechanical civilizations in Sierre. Gifted with a heightened learning capacity, adept in handling mechanized armaments, they acquire feats faster than any other races.</t>
+  </si>
+  <si>
+    <t>シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てのものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
+  </si>
+  <si>
+    <t>eulderna</t>
+  </si>
+  <si>
+    <t>エウダーナ</t>
+  </si>
+  <si>
+    <t>One of the most ancient nations in Sierre Terre, Eulderna wields vast knowledge of magic and magical weaponry. Recognized and feared as the desert empire by the world, they bear a sense of chosen destiny, believing that only they are worthy of steering the world's course. They are cruel perfectionists. Euldernains are skilled in magic and magical tools, making them apt for caster and intermediate professions.</t>
+  </si>
+  <si>
+    <t>エウダーナはシエラ・テールに存在する最も古い国の一つです。強大な魔法と魔道兵器の知識を有し、砂漠の帝国として各国から恐れられています。彼らは、自分たちのみが世界を動かすに値すると考える選民意識の持ち主で、残虐な完ぺき主義者です。エウダーナ人は魔法や魔法道具の扱いにたけ、キャスターや中間的な職業に向いています。</t>
+  </si>
+  <si>
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>妖精</t>
+  </si>
+  <si>
+    <t>Delicate, frail, and fleeting, fairies boast higher magical prowess, evasion, and unmatched speed compared to humans. They hold high resistance to nearly all elements. However, their physical fragility limits them from wearing gear heavier than 1s, making bolstering defenses a challenge. A single substantial physical attack could place them in peril.</t>
+  </si>
+  <si>
+    <t>妖精は可憐で非力で儚い生物です。彼女達は、人間族と比べて高い魔力と回避力、目にも止まらぬすばしっこさを持ち、ほぼ全ての耐性に高い抵抗力を持っています。反面、妖精は重さ1s以上の装備を身につけることができず、防御力をあげるのは困難です。その体力の低さからも、まともな物理攻撃を一度でもくらうと危機に陥るでしょう。</t>
+  </si>
+  <si>
+    <t>dwarf</t>
+  </si>
+  <si>
+    <t>hillfolk</t>
+  </si>
+  <si>
+    <t>丘の民</t>
+  </si>
+  <si>
+    <t>The Hillfolk are a stout and rugged race of short stature. Once, they built grand cities of gold and gems deep beneath the earth, but much of those splendors now remains only as ruins inhabited by dangerous monsters. Possessing advanced mining and crafting skills, their compact, sturdy bodies are equipped to thrive in the darkest and most toxic of environments. They have a profound love for alcohol and can summon strength beyond their usual capabilities when they drink.</t>
+  </si>
+  <si>
+    <t>丘の民は、頑強で無骨な背が低い種族です。かつて地下深くに黄金と宝石の都を築いた彼らですが、その栄光の多くは、今や危険な魔物が住みつく遺跡として残るのみとなっています。丘の民は高い採掘技術と生産技術を持ち、ずんぐりした小さい体は強靭で、暗闇や毒の環境でも生存する能力を持っています。彼らは酒をこよなく愛し、酒を飲むことで普段以上の力を発揮することができます。</t>
+  </si>
+  <si>
+    <t>juere</t>
+  </si>
+  <si>
+    <t>ジューア</t>
+  </si>
+  <si>
+    <t>Nomads of South Tyris without a homeland, the Juere often drift into banditry, making them notorious in Tyris. They cherish freedom, loathe constraints, and prioritize personal autonomy. Gifted with dexterous hands, sharp senses, and a high learning ability, they are masters of all trades. They can earn their living through performances and can survive on minimal sustenance.</t>
+  </si>
+  <si>
+    <t>ジューアは国を持たないサウスティリスの遊牧民です。彼らは時に盗賊やならず者の集団へと転じるため、ティリスでの評判はあまり芳しくありません。彼らは束縛されることを嫌い、自分の意思を尊重し、自由に生きることを好みます。ジューアは手先が器用で、鋭い感覚と高い学習能力を持ち、多彩な技術に精通しています。彼らはパフォーマンスをすることで生計をたてることができ、少ない食事で生き抜く術を会得しています。</t>
+  </si>
+  <si>
+    <t>elea</t>
+  </si>
+  <si>
+    <t>エレア</t>
+  </si>
+  <si>
+    <t>Among the oldest and most mysterious races in Sierre Terre, the Elea are serene, mystical, and beautiful beings. Preferring isolation, they live peacefully in forests. They have resistance to ether and vast magical powers, with the capability to mitigate damage from magical backlash.</t>
+  </si>
+  <si>
+    <t>エレアはシエラ・テールでもっとも古い、大人しく、神秘的で、美しい種族です。彼らは他の種族との干渉を避け、森の中で静かに暮らすことを好みます。エレアはエーテルへの耐性と高い魔力を持ち、魔力の反動によるダメージを軽減することができます。</t>
+  </si>
+  <si>
+    <t>mutant</t>
+  </si>
+  <si>
+    <t>chaos shape</t>
+  </si>
+  <si>
+    <t>カオスシェイプ</t>
+  </si>
+  <si>
+    <t>Little is known about the Chaos Shape, also referred to as the "Deformed Ones." They barely retain a human form. Chaos Shapes acquire new body parts as they grow, but what emerges is unpredictable.</t>
+  </si>
+  <si>
+    <t>カオスシェイプについて分かっていることは、ほとんどありません。異形の人とも呼ばれる彼らは、かろうじて人の形を保っています。カオスシェイプは成長とともに新しい身体の部位を獲得しますが、何が生えてくるかは予測不可能です。</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>かたつむり</t>
+  </si>
+  <si>
+    <t>The snail is a notably sluggish creature. Fragile, weak, clumsy, and devoid of learning aptitude, they can be dissolved by salt.</t>
+  </si>
+  <si>
+    <t>カタツムリは非常に鈍い生き物です。彼らは脆く、非力で、不器用で、学習能力がなく、塩で溶けます。</t>
+  </si>
+  <si>
+    <t>lich</t>
+  </si>
+  <si>
+    <t>リッチ</t>
+  </si>
+  <si>
+    <t>Immortal undead endowed with immense intelligence and magic, Liches possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While liches have resistance to several elements, they are vulnerable to fire.</t>
+  </si>
+  <si>
+    <t>リッチは高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。リッチは幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
+  </si>
+  <si>
+    <t>wraith</t>
+  </si>
+  <si>
+    <t>幽鬼</t>
+  </si>
+  <si>
+    <t>Immortal undead endowed with immense intelligence and magic, Wraiths possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While wraiths have resistance to several elements, they are vulnerable to fire.</t>
+  </si>
+  <si>
+    <t>幽鬼は高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。幽鬼は幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
+  </si>
+  <si>
+    <t>golem</t>
+  </si>
+  <si>
+    <t>ゴーレム</t>
+  </si>
+  <si>
+    <t>Golems are materials imbued with life through magical means. Compared to other races, they boast vastly superior physical strength. However, perhaps as a trade-off, their mana and speed are notably inferior. Golems have a strong resistance to poison, are immune to bleeding, and possess the advantage of not succumbing to a state of being dazed.</t>
+  </si>
+  <si>
+    <t>ゴーレムは魔力により生命を与えられた物質です。ゴーレムは他の種族に比べ遥かに高い体力を持っています。その代償としてか、彼らのマナと速度は、通常よりも劣っています。ゴーレムには毒への強い耐性があり、また出血と朦朧状態にならないという利点があります。</t>
+  </si>
+  <si>
+    <t>mifu</t>
+  </si>
+  <si>
+    <t>ミフ</t>
+  </si>
+  <si>
+    <t>The Mifu are a hybrid race of fox-human who live quietly in a corner of Tyris. Unlike their sister race, the Nefu, they are characterized by their white hair and fur, and large fluffy ears that stand up straight. They are cheerful and mischievous, and while they aren't particularly resilient, they make up for it with their outstanding knowledge of blessings and curses.</t>
+  </si>
+  <si>
+    <t>ミフはティリスの片隅でひっそりと暮らす狐と人間の亜種族で、姉妹種族のネフとは異なり、白い髪と毛皮、ピンと垂直にたった大きな耳が特徴的です。彼らは明るく、悪戯好きで、あまり打たれ強くはないものの、卓越した祝福と呪いの知識を持っています。</t>
+  </si>
+  <si>
+    <t>nefu</t>
+  </si>
+  <si>
+    <t>ネフ</t>
+  </si>
+  <si>
+    <t>Featuring red hair and fur, ample bosoms, and fluffy tails that increase in number as they age, the Nefu are a hybrid fox-human race. Similar to the Mifu, they reside far from human settlements. However, their striking beauty, combined with their distinctive spellsword combat style, has become a topic of fascination among adventurers.</t>
+  </si>
+  <si>
+    <t>ネフは赤い髪と毛皮、大きな胸とふさふさの多尾が特徴的な、狐と人間の亜種族です。姉妹種族のミフ同様に、人里から離れて暮らしていますが、その美しさ、そして魔法と長剣を操り舞うように戦う独特の流儀は、冒険者の間でもよく囁かれています。</t>
+  </si>
+  <si>
+    <t>succubus</t>
+  </si>
+  <si>
+    <t>サキュバス</t>
+  </si>
+  <si>
+    <t>Known by the alias "Lunar" or "Moonlit Kins", Succubi are said to appear by one's bedside on beautiful moonlit nights, tempting humans with their allure. The reality of this is whether the moon is out or not, night or day, they simply adore pleasurable experiences. They possess both high charisma and magic, growing stronger by indulging in sensations of pleasure.</t>
+  </si>
+  <si>
+    <t>月夜の眷属、ルナーという別名でも知られるサキュバスは、月の美しい夜に枕元に現れ、人々を誘惑すると言い伝えられています。実際には、月が出ていようとなかろうと、夜であろうとなかろうと、気持ちいいことが大好きです。彼らは高い魅力と魔力を持ち、快感に耽ることで成長します。</t>
+  </si>
+  <si>
+    <t>demigod</t>
+  </si>
+  <si>
+    <t>半神</t>
+  </si>
+  <si>
+    <t>Demigods are the offspring of a god incarnate who descended to the earth and mingled with humans. Most of them are the product of the gods' whims, and it is rare for them to realize their own origins or their unique abilities. They possess beauty akin to that of the gods, well-balanced abilities, strong vitality, and mana.</t>
+  </si>
+  <si>
+    <t>半神は地上に降り立った神の化身が人間と交わった結果生まれた子供たちです。その多くは神々の戯れの産物であり、彼らが自身の出自や特異な能力に気づくことは稀です。彼らは神の造形がごとく美しく、均整の取れた能力を持ち、強い生命力とマナを備えています。</t>
+  </si>
+  <si>
+    <t>shiba</t>
+  </si>
+  <si>
+    <t>シバ</t>
+  </si>
+  <si>
+    <t>The Shiba, while diverse in appearance and ecology, are generally known for their sturdy build and friendly, submissive nature. They are intelligent and adorable. and possess resistance to cold.</t>
+  </si>
+  <si>
+    <t>シバは多様な種族により形成され、その外見や生態も様々ですが、総じてがっちりした体格と、友好的で従順な性格で知られています。彼らは賢く、キュートで、氷に対する耐性を持っています。</t>
+  </si>
+  <si>
+    <t>eldercrab</t>
+  </si>
+  <si>
+    <t>elder crab</t>
+  </si>
+  <si>
+    <t>古代蟹</t>
+  </si>
+  <si>
+    <t>The Elder Crab is the oldest of the crab species, preferring waterside habitats and evolving into various elements adapted to their environments. They are basically delicious, but their flavor changes depending on their element. Excelling in strength and endurance, they can restrain enemies with their massive pincers and are capable of exhaling a bubble breath.</t>
+  </si>
+  <si>
+    <t>古代蟹は最も古い蟹の種族で、水辺を好み、生息する地域に適応し様々な属性へと進化しています。基本的には美味しいものの、属性によって風味も変化します。筋力と耐久に秀で、その巨大なハサミで敵を拘束し、また泡のブレスを吐くことができます。</t>
+  </si>
+  <si>
+    <t>goblin</t>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+  </si>
+  <si>
+    <t>kobolt</t>
+  </si>
+  <si>
+    <t>kobold</t>
+  </si>
+  <si>
+    <t>コボルト</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>トロール</t>
+  </si>
+  <si>
+    <t>lizardman</t>
+  </si>
+  <si>
+    <t>リザードマン</t>
+  </si>
+  <si>
+    <t>minotaur</t>
+  </si>
+  <si>
+    <t>ミノタウロス</t>
+  </si>
+  <si>
+    <t>norland</t>
+  </si>
+  <si>
+    <t>ノーランド</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>阿修羅</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>スライム</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>ウサギ</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>蛙</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>ムカデ</t>
+  </si>
+  <si>
+    <t>mandrake</t>
+  </si>
+  <si>
+    <t>マンドレイク</t>
+  </si>
+  <si>
+    <t>beetle</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>きのこ</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>コウモリ</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>エント</t>
+  </si>
+  <si>
+    <t>hound</t>
+  </si>
+  <si>
+    <t>猟犬</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>幽霊</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>精霊</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>wyvern</t>
+  </si>
+  <si>
+    <t>ワイバーン</t>
+  </si>
+  <si>
+    <t>wasp</t>
+  </si>
+  <si>
+    <t>ワスプ</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>巨人</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>インプ</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>drake</t>
+  </si>
+  <si>
+    <t>ドレイク</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>鎧</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>メデューサ</t>
+  </si>
+  <si>
+    <t>cupid</t>
+  </si>
+  <si>
+    <t>キューピット</t>
+  </si>
+  <si>
+    <t>phantom</t>
+  </si>
+  <si>
+    <t>ファントム</t>
+  </si>
+  <si>
+    <t>harpy</t>
+  </si>
+  <si>
+    <t>ハーピー</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>ドラゴン</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>恐竜</t>
+  </si>
+  <si>
+    <t>cerberus</t>
+  </si>
+  <si>
+    <t>ケルベロス</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>岩</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>蟹</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>骸骨</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>駒</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>roran</t>
+  </si>
+  <si>
+    <t>ローラン</t>
+  </si>
+  <si>
+    <t>mermaid</t>
+  </si>
+  <si>
+    <t>人魚</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>ねずみ</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>やどかり</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>機械</t>
+  </si>
+  <si>
+    <t>wisp</t>
+  </si>
+  <si>
+    <t>ウィスプ</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鶏</t>
+  </si>
+  <si>
+    <t>stalker</t>
+  </si>
+  <si>
+    <t>ストーカー</t>
+  </si>
+  <si>
+    <t>yeek</t>
+  </si>
+  <si>
+    <t>イーク</t>
+  </si>
+  <si>
+    <t>yith</t>
+  </si>
+  <si>
+    <t>イス</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>quickling</t>
+  </si>
+  <si>
+    <t>クイックリング</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>メタル</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>バイク</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>豚</t>
+  </si>
+  <si>
+    <t>catgod</t>
+  </si>
+  <si>
+    <t>猫の神</t>
+  </si>
+  <si>
+    <t>machinegod</t>
+  </si>
+  <si>
+    <t>機械の神</t>
+  </si>
+  <si>
+    <t>undeadgod</t>
+  </si>
+  <si>
+    <t>死霊の神</t>
+  </si>
+  <si>
+    <t>catsister</t>
+  </si>
+  <si>
+    <t>妹猫</t>
+  </si>
+  <si>
+    <t>servant</t>
+  </si>
+  <si>
+    <t>apostle</t>
+  </si>
+  <si>
+    <t>使徒</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>Alpha 15.1</t>
+  </si>
+  <si>
+    <t>Alpha 11.1</t>
+  </si>
+  <si>
+    <t>Beta 22.23</t>
+  </si>
+  <si>
+    <t>Alpha 20.8</t>
+  </si>
+  <si>
+    <t>Alpha 20.64</t>
+  </si>
+  <si>
+    <t>Alpha 17.1</t>
+  </si>
+  <si>
+    <t>Alpha 20.40</t>
+  </si>
+  <si>
+    <t>Alpha 20.27</t>
+  </si>
+  <si>
+    <t>예를스</t>
+  </si>
+  <si>
+    <t>에우다나</t>
+  </si>
+  <si>
+    <t>요정</t>
+  </si>
+  <si>
+    <t>언덕의 민족</t>
+  </si>
+  <si>
+    <t>쥬아</t>
+  </si>
+  <si>
+    <t>엘레아</t>
+  </si>
+  <si>
+    <t>카오스셰이프</t>
+  </si>
+  <si>
+    <t>달팽이</t>
+  </si>
+  <si>
+    <t>리치</t>
+  </si>
+  <si>
+    <t>원귀</t>
+  </si>
+  <si>
+    <t>골렘</t>
+  </si>
+  <si>
+    <t>미후</t>
+  </si>
+  <si>
+    <t>네후</t>
+  </si>
+  <si>
+    <t>서큐버스</t>
+  </si>
+  <si>
+    <t>반신</t>
+  </si>
+  <si>
+    <t>시바</t>
+  </si>
+  <si>
+    <t>고대게</t>
+  </si>
+  <si>
+    <t>고블린</t>
+  </si>
+  <si>
+    <t>코볼트</t>
+  </si>
+  <si>
+    <t>오크</t>
+  </si>
+  <si>
+    <t>트롤</t>
+  </si>
+  <si>
+    <t>리저드맨</t>
+  </si>
+  <si>
+    <t>미노타우르스</t>
+  </si>
+  <si>
+    <t>노랜드</t>
+  </si>
+  <si>
+    <t>아수라</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>늑대</t>
+  </si>
+  <si>
+    <t>좀비</t>
+  </si>
+  <si>
+    <t>토끼</t>
+  </si>
+  <si>
+    <t>양</t>
+  </si>
+  <si>
+    <t>개구리</t>
+  </si>
+  <si>
+    <t>지네</t>
+  </si>
+  <si>
+    <t>만드레이크</t>
+  </si>
+  <si>
+    <t>곤충</t>
+  </si>
+  <si>
+    <t>버섯</t>
+  </si>
+  <si>
+    <t>박쥐</t>
+  </si>
+  <si>
+    <t>엔트</t>
+  </si>
+  <si>
+    <t>사냥개</t>
+  </si>
+  <si>
+    <t>유령</t>
+  </si>
+  <si>
+    <t>정령</t>
+  </si>
+  <si>
+    <t>눈</t>
+  </si>
+  <si>
+    <t>와이번</t>
+  </si>
+  <si>
+    <t>와스프</t>
+  </si>
+  <si>
+    <t>거인</t>
+  </si>
+  <si>
+    <t>임프</t>
+  </si>
+  <si>
+    <t>손</t>
+  </si>
+  <si>
+    <t>뱀</t>
+  </si>
+  <si>
+    <t>드레이크</t>
+  </si>
+  <si>
+    <t>곰</t>
+  </si>
+  <si>
+    <t>갑옷</t>
+  </si>
+  <si>
+    <t>메두사</t>
+  </si>
+  <si>
+    <t>큐피드</t>
+  </si>
+  <si>
+    <t>팬텀</t>
+  </si>
+  <si>
+    <t>하피</t>
+  </si>
+  <si>
+    <t>드래곤</t>
+  </si>
+  <si>
+    <t>공룡</t>
+  </si>
+  <si>
+    <t>케르베로스</t>
+  </si>
+  <si>
+    <t>거미</t>
+  </si>
+  <si>
+    <t>바위</t>
+  </si>
+  <si>
+    <t>게</t>
+  </si>
+  <si>
+    <t>해골</t>
+  </si>
+  <si>
+    <t>체스 말</t>
+  </si>
+  <si>
+    <t>고양이</t>
+  </si>
+  <si>
+    <t>개</t>
+  </si>
+  <si>
+    <t>로랑</t>
+  </si>
+  <si>
+    <t>인어</t>
+  </si>
+  <si>
+    <t>쥐</t>
+  </si>
+  <si>
+    <t>소라게</t>
+  </si>
+  <si>
+    <t>기계</t>
+  </si>
+  <si>
+    <t>위습</t>
+  </si>
+  <si>
+    <t>닭</t>
+  </si>
+  <si>
+    <t>스토커</t>
+  </si>
+  <si>
+    <t>이크</t>
+  </si>
+  <si>
+    <t>이스</t>
+  </si>
+  <si>
+    <t>말</t>
+  </si>
+  <si>
+    <t>퀴클링</t>
+  </si>
+  <si>
+    <t>메탈</t>
+  </si>
+  <si>
+    <t>바이크</t>
+  </si>
+  <si>
+    <t>물고기</t>
+  </si>
+  <si>
+    <t>돼지</t>
+  </si>
+  <si>
+    <t>고양이 신</t>
+  </si>
+  <si>
+    <t>기계의 신</t>
+  </si>
+  <si>
+    <t>사령의 신</t>
+  </si>
+  <si>
+    <t>고양이 여동생</t>
+  </si>
+  <si>
+    <t>몸종</t>
+  </si>
+  <si>
+    <t>신</t>
+  </si>
+  <si>
+    <t>시에라 테일에서 급속도로 대두된 신왕국, 에를의 백성이 예를스입니다. 예를스의 조상은 에우다나에서 탈출한 노예들이며, 제국과 제국이 만들어낸 모든 것을 증오하고 있습니다. 시에라에서 첫째가는 기계문명을 이룩한 예를스는 높은 학습능력을 갖고 있고, 기계 무장을 잘 다뤄, 다른 종족들보다 빠르게 피트를 획득할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>에우다나는 시에라 테일에 존재하는 가장 오래된 국가 중 하나입니다. 강대한 마법과 마도병기 지식을 갖고 있는 사막의 제국으로, 많은 국가에서 두려워하고 있습니다. 에우다나 인들은 자신들만이 세계를 움직일 수 있다고 믿는 선민의식을 갖고 있는, 잔학한 완벽 주의자입니다. 에우다나인은 마법이나 마법 도구을 능숙하게 사용하며, 캐스터나 마법을 사용하는 직업에 적합합니다.</t>
+  </si>
+  <si>
+    <t>요정은 가련하고, 힘도 없는 덧없는 생물입니다. 요정들은 인간족에 비해서 높은 마력과 회피력, 눈에도 포착되지 않을 민첩성을 가지고 있으며, 거의 모든 내성에 높은 저항력을 갖고 있습니다. 반면, 요정은 무게 1s 이상의 장비를 몸에 착용할 수 없어, 방어력을 상승이 힘듭니다. 체력이 낮기 때문에, 제대로 된 물리 공격을 일격이라도 허용한다면, 위기에 빠질 겁니다.</t>
+  </si>
+  <si>
+    <t>언덕의 민족은 완강하고 투박한, 키가 작은 종족입니다. 한 때, 지하 깊은 곳에서 황금과 보석으로 이루어진 수도를 세웠었지만, 지금 그 영광은 위험한 마물들이 살아가는 유적으로만 남아 있을 뿐입니다. 언덕의 민족은 높은 채굴 기술과 생산기술을 가지고 있고, 땅딸막한 작은 신체는 강인하고, 어둡거나 독성이 감도는 환경에서도 생존하는 능력을 갖고 있습니다. 이들은 특히 술을 사랑하고, 술을 마심으로써 평소 이상의 힘을 발휘할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>쥬아는 나라가 없는 사우스 티리스의 유목민입니다. 쥬아는 종종 도적이나, 불량배 패거리에 들어가기도 해, 티리스에서의 평판은 그렇게 좋지는 않습니다. 이들은 속박 당하는 걸 싫어하고, 자신들의 의사를 존중하며 자유롭게 사는 것을 좋아합니다. 쥬아는 손재주가 있고, 날카로운 감각과 높은 학습 능력을 갖고있으며, 다양한 기술에 정통해 있습니다. 이들은 퍼포먼스를 해 생계를 유지할 수 있으며, 적은 식사로 살아남는 방법을 알고 있습니다.</t>
+  </si>
+  <si>
+    <t>카오스 셰이프에 대해 알려진 내용은 거의 없습니다. 이상한 모습의 인간이라고 불리우는 카오스 셰이프들은, 간신히 사람의 형태를 유지하고 있습니다. 카오스 셰이프는 성장에 따라 새로운 신체 부위가 자라나지만, 무엇이 자라날 지는 예측 불가능합니다.</t>
+  </si>
+  <si>
+    <t>달팽이는 매우 둔한 생명체입니다. 달팽이들은 여리고, 약하고, 서투르고, 학습 능력도 없고, 소금에 닿으면 녹습니다.</t>
+  </si>
+  <si>
+    <t>리치는 높은 지능과 마나를 가진 불멸의 언데드입니다. 리치들은 다른 종족보다 높은 마나와 명상 기술을 갖고 있지만, 근접전을 견디고, 버텨낼만한 체력은 갖고있지 않습니다. 리치는 몇가지 속성에 대한 내성을 갖고 있지만, 화염에는 취약합니다.</t>
+  </si>
+  <si>
+    <t>원귀는 높은 지능과 마나를 가진 불멸의 언데드입니다. 원귀들은 다른 종족보다 높은 마나와 명상 기술을 갖고 있지만, 근접전을 견디고, 버텨낼만한 체력은 갖고있지 않습니다. 리치는 몇가지 속성에 대한 내성을 갖고 있지만, 화염에는 취약합니다.</t>
+  </si>
+  <si>
+    <t>골렘은 마력을 통해 생명을 갖게된 물질입니다. 골렘은 다른 종족에 비해 아득히 높은 체력을 갖고 있습니다. 그 대가로, 골렘들은 마나와 속도는 굉장히 뒤떨어 집니다. 골렘들은 독에 대한 강한 내성이 있고, 출혈과 몽롱 상태에 빠지지 않는다는 장점이 있습니다.</t>
+  </si>
+  <si>
+    <t>미후는 티리스 한 켠에 조용히 살고 있는 여우와 인간의 아종족으로, 자매 종족인 네프와는 달리 하얀 머리카락과 모피, 똑바로 서있는 커다란 귀가 특징입니다. 미후들은 밝고, 장난을 좋아합니다. 육탄전에서는 그렇게 강하지는 않지만 탁월한 축복과 저주 지식을 갖고 있습니다.</t>
+  </si>
+  <si>
+    <t>네프는 붉은 머리카락과 모피, 커다란 가슴과 푹신푹신한 꼬리들이 특징인 여우와 인간의 아종족 입니다. 자매 종족인 미후와 마찬가지로, 사람의 마을에서 떨어져 살아가고 있지만, 그 아름다움과 마법과 장검을 휘두르며 춤추는 듯이 싸우는 독특한 전투 방식은, 모험자들 사이에서 종종 소문의 대상이 됩니다.</t>
+  </si>
+  <si>
+    <t>월야의 권속, 루나 라는 이름으로도 알려진 서큐버스는, 아름다운 달이 뜬 밤 머리맡에 나타나, 사람들을 유혹한다고 전해집니다. 실제로는 달이 떠있든 안 떠있든, 밤이든 낮이든, 기분 좋은 일을 굉장히 좋아합니다. 서큐버스는 높은 매력과 마력을 가지고 있고, 쾌감을 탐닉하는 것으로 성장합니다.</t>
+  </si>
+  <si>
+    <t>반신은 지상에 내려온 신의 화신이 인간과 함께한 결과 태어난 아이들입니다.  대부분은 신들의 장난의 산물이며, 많은 반신들이 자신의 출신이나 특이한 능력을 깨닫지 못합니다. 반신들은 신의 조각상 처럼 아름답고, 균형잡힌 능력을 갖고 있으며, 강한 생명력과 마력을 갖고있습니다.</t>
+  </si>
+  <si>
+    <t>시바는 다양한 종족들에 의해 형성되어, 그 외견과 생태도 다양하지만, 대체적으로 다부진 체격과, 우호적이고 순종적인 성격을 갖고 있는 것으로 알려져 있습니다. 시바는 똑똑하고,큐트하며, 얼음에 대한 내성을 갖고 있습니다.</t>
+  </si>
+  <si>
+    <t>고대 게는 가장 오래된 게 종족으로, 물가 근처를 좋아하고, 생활하는 지역에 적응해, 다양한 속성으로 진화하고 있습니다. 기본적으로 맛있지만, 속성에 따라 풍미도 변화합니다. 근력과 내구가 뛰어나고, 그 거대한 집게발로 적을 구속할 수 있으며 거품 브레스를 토할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>엘레아는 시에라 테일에서 가장 가장 오래되고, 조용하고, 신비로우며, 아름다운 종족입니다. 엘레아는 다른 종족의 간섭을 피해, 숲속에서 조용하게 사는 것을 좋아합니다. 엘레아는 에테르에 대한 내성을 갖고 있으며, 높은 마력을 가져 마력의 반동으로 인한 대미지를 감소시킬 수 있습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="44"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1054,51 +1064,350 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1107,7 +1416,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1117,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1573,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1273,7 +1582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1599,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1299,7 +1608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1316,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1325,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1342,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1351,7 +1660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1677,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1377,7 +1686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1703,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1403,7 +1712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1729,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1429,7 +1738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1755,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1455,7 +1764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1472,7 +1781,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1481,7 +1790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1498,7 +1807,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1507,7 +1816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1524,7 +1833,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1533,7 +1842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1550,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
@@ -1559,7 +1868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1575,10 +1884,8 @@
       <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1594,10 +1901,8 @@
       <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1613,10 +1918,8 @@
       <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1632,10 +1935,8 @@
       <c r="E23" t="s">
         <v>88</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1651,10 +1952,8 @@
       <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1670,10 +1969,8 @@
       <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1689,10 +1986,8 @@
       <c r="E26" t="s">
         <v>94</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1708,10 +2003,8 @@
       <c r="E27" t="s">
         <v>96</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1727,10 +2020,8 @@
       <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1746,10 +2037,8 @@
       <c r="E29" t="s">
         <v>100</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -1765,10 +2054,8 @@
       <c r="E30" t="s">
         <v>102</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1784,10 +2071,8 @@
       <c r="E31" t="s">
         <v>104</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1803,10 +2088,8 @@
       <c r="E32" t="s">
         <v>106</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -1822,10 +2105,8 @@
       <c r="E33" t="s">
         <v>108</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -1841,10 +2122,8 @@
       <c r="E34" t="s">
         <v>110</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1860,10 +2139,8 @@
       <c r="E35" t="s">
         <v>112</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -1879,10 +2156,8 @@
       <c r="E36" t="s">
         <v>114</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -1898,10 +2173,8 @@
       <c r="E37" t="s">
         <v>116</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -1917,10 +2190,8 @@
       <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1936,10 +2207,8 @@
       <c r="E39" t="s">
         <v>120</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -1955,10 +2224,8 @@
       <c r="E40" t="s">
         <v>122</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -1974,10 +2241,8 @@
       <c r="E41" t="s">
         <v>124</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -1993,10 +2258,8 @@
       <c r="E42" t="s">
         <v>126</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2012,10 +2275,8 @@
       <c r="E43" t="s">
         <v>128</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -2031,10 +2292,8 @@
       <c r="E44" t="s">
         <v>130</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2050,10 +2309,8 @@
       <c r="E45" t="s">
         <v>132</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -2069,10 +2326,8 @@
       <c r="E46" t="s">
         <v>134</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -2088,10 +2343,8 @@
       <c r="E47" t="s">
         <v>136</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -2107,10 +2360,8 @@
       <c r="E48" t="s">
         <v>138</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2126,10 +2377,8 @@
       <c r="E49" t="s">
         <v>140</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -2145,10 +2394,8 @@
       <c r="E50" t="s">
         <v>142</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -2164,10 +2411,8 @@
       <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -2183,10 +2428,8 @@
       <c r="E52" t="s">
         <v>146</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -2202,10 +2445,8 @@
       <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -2221,10 +2462,8 @@
       <c r="E54" t="s">
         <v>150</v>
       </c>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -2240,10 +2479,8 @@
       <c r="E55" t="s">
         <v>152</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -2259,10 +2496,8 @@
       <c r="E56" t="s">
         <v>154</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -2278,10 +2513,8 @@
       <c r="E57" t="s">
         <v>156</v>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -2297,10 +2530,8 @@
       <c r="E58" t="s">
         <v>158</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -2316,10 +2547,8 @@
       <c r="E59" t="s">
         <v>160</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -2335,10 +2564,8 @@
       <c r="E60" t="s">
         <v>162</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -2354,10 +2581,8 @@
       <c r="E61" t="s">
         <v>164</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -2373,10 +2598,8 @@
       <c r="E62" t="s">
         <v>166</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -2392,10 +2615,8 @@
       <c r="E63" t="s">
         <v>168</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -2411,10 +2632,8 @@
       <c r="E64" t="s">
         <v>170</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>171</v>
       </c>
@@ -2430,10 +2649,8 @@
       <c r="E65" t="s">
         <v>172</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -2449,10 +2666,8 @@
       <c r="E66" t="s">
         <v>174</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -2468,10 +2683,8 @@
       <c r="E67" t="s">
         <v>176</v>
       </c>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>177</v>
       </c>
@@ -2487,10 +2700,8 @@
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>179</v>
       </c>
@@ -2506,10 +2717,8 @@
       <c r="E69" t="s">
         <v>180</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -2525,10 +2734,8 @@
       <c r="E70" t="s">
         <v>182</v>
       </c>
-      <c r="G70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -2544,10 +2751,8 @@
       <c r="E71" t="s">
         <v>184</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>185</v>
       </c>
@@ -2563,10 +2768,8 @@
       <c r="E72" t="s">
         <v>186</v>
       </c>
-      <c r="G72"/>
-      <c r="H72"/>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -2582,10 +2785,8 @@
       <c r="E73" t="s">
         <v>188</v>
       </c>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -2601,10 +2802,8 @@
       <c r="E74" t="s">
         <v>190</v>
       </c>
-      <c r="G74"/>
-      <c r="H74"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -2620,10 +2819,8 @@
       <c r="E75" t="s">
         <v>192</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -2639,10 +2836,8 @@
       <c r="E76" t="s">
         <v>194</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -2658,10 +2853,8 @@
       <c r="E77" t="s">
         <v>196</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>197</v>
       </c>
@@ -2677,10 +2870,8 @@
       <c r="E78" t="s">
         <v>198</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -2696,10 +2887,8 @@
       <c r="E79" t="s">
         <v>200</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>201</v>
       </c>
@@ -2715,10 +2904,8 @@
       <c r="E80" t="s">
         <v>202</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -2734,10 +2921,8 @@
       <c r="E81" t="s">
         <v>204</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -2753,10 +2938,8 @@
       <c r="E82" t="s">
         <v>207</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>208</v>
       </c>
@@ -2772,10 +2955,8 @@
       <c r="E83" t="s">
         <v>209</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>210</v>
       </c>
@@ -2791,10 +2972,8 @@
       <c r="E84" t="s">
         <v>211</v>
       </c>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>212</v>
       </c>
@@ -2810,10 +2989,8 @@
       <c r="E85" t="s">
         <v>213</v>
       </c>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -2829,10 +3006,8 @@
       <c r="E86" t="s">
         <v>215</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>216</v>
       </c>
@@ -2848,10 +3023,8 @@
       <c r="E87" t="s">
         <v>218</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>219</v>
       </c>
@@ -2867,11 +3040,11 @@
       <c r="E88" t="s">
         <v>220</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Lang_Korean/Lang/KR/Game/Race.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="333">
   <si>
     <t xml:space="preserve">id</t>
   </si>
